--- a/Assets/_Project/ScriptableObject/StageDB.xlsx
+++ b/Assets/_Project/ScriptableObject/StageDB.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Han\Desktop\Unity Projects\TakeBackMyHome\Assets\_Project\ScriptableObject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HKJ\Desktop\UnityProject\TakeBackMyHome\Assets\_Project\ScriptableObject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F04CA0C-6126-4CBD-9B98-950A1B8A964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CD90F3-DA0D-471D-9E30-CA46C5C8D89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7E96E5E-2B56-429B-B6A1-4F9E1CD4EB8E}"/>
+    <workbookView xWindow="1872" yWindow="1356" windowWidth="20916" windowHeight="10884" xr2:uid="{F7E96E5E-2B56-429B-B6A1-4F9E1CD4EB8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +48,31 @@
   </si>
   <si>
     <t>value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>## level : 스테이지 레벨 
+/// type : 유형 (장애물, Count) 0 : Count, 1 : Obstacle
+/// type2 : object 종류 (ObstacleType, CountType)
+/// position : object 위치 (0 : Right, 1: Left ,2 : Both)
+/// value : 장애물, Count의 계수 (장애물 : 장애물의 속도, Count : Count 계수)
+/// value2 : Both일 경우, 장애물, Count의 계수 (장애물 : 장애물의 속도, Count : Count 계수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,9 +119,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73F9436-191E-42A0-8B94-82AD64CF8B86}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,67 +471,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="122.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -517,239 +524,1486 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19">
         <v>10</v>
       </c>
-      <c r="F7">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="F35">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
         <v>50</v>
       </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="F40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>60</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>50</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+      <c r="F67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>50</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A34:XFD34"/>
+    <mergeCell ref="A50:XFD50"/>
+    <mergeCell ref="A66:XFD66"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
